--- a/curation/draft/package13/R13_BC_SDTM_QRS_TANNER-SCALE-BOY.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_TANNER-SCALE-BOY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DB4FC4-677A-4543-A6F5-19E282EB09B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF1DF54-724E-4163-948C-CC0727432E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_TS-BOY'!$A$1:$S$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM_TS-BOY'!$A$1:$AG$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="131">
   <si>
     <t>package_date</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Ordinal</t>
+  </si>
+  <si>
+    <t>CCCAT</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1232,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1550,7 @@
         <v>73</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>102</v>
@@ -1967,7 +1970,7 @@
         <v>73</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>102</v>
